--- a/biology/Zoologie/Heterogaster_cathariae/Heterogaster_cathariae.xlsx
+++ b/biology/Zoologie/Heterogaster_cathariae/Heterogaster_cathariae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Punaise grise panachée de noir
-Heterogaster cathariae, la Punaise grise panachée de noir[2], est une espèce d'hémiptères de la famille des Heterogastridae.
+Heterogaster cathariae, la Punaise grise panachée de noir, est une espèce d'hémiptères de la famille des Heterogastridae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette punaise se distingue d’Heterogaster urticae par sa tête et ses pattes non couvertes de longs poils dressés et la présence de deux, et non de trois, cernes foncés sur ses tibias. Cette espèce se distingue d’Heterogaster artemisiae (de) par ses antennes complètement sombres et non bicolores[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette punaise se distingue d’Heterogaster urticae par sa tête et ses pattes non couvertes de longs poils dressés et la présence de deux, et non de trois, cernes foncés sur ses tibias. Cette espèce se distingue d’Heterogaster artemisiae (de) par ses antennes complètement sombres et non bicolores.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterogaster cathariae vit principalement dans l'écozone paléarctique. En Europe, on la recense au Portugal, Espagne, Andorre, France, Belgique, Allemagne, Suisse, Autriche, Italie, Pologne, République Tchèque, Slovaquie, Hongrie, Ukraine, Moldavie, Roumanie, Bulgarie, Croatie, Bosnie-Herzégovine, Monténégro, Serbie, Grèce et la partie européenne de la Russie. En Afrique du Nord, il vit au Maroc, en Algérie et en Libye. En Asie, on le trouve à Chypre, en Turquie, en Syrie, en Géorgie, en Arménie, en Azerbaïdjan, au Kazakhstan, au Turkménistan, en Ouzbékistan, au Tadjikistan, au Kirghizistan, en Iran et en Chine.
 </t>
@@ -574,9 +590,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heterogaster cathariae est un phytophage suceur de sève. L'insecte est un parasite des plantes Lycopus europaeus, Melissa officinalis, Mentha, Nepeta cataria, Nepeta italica, Nepeta melissifolia (ceb), Nepeta nuda, Salvia officinalis[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heterogaster cathariae est un phytophage suceur de sève. L'insecte est un parasite des plantes Lycopus europaeus, Melissa officinalis, Mentha, Nepeta cataria, Nepeta italica, Nepeta melissifolia (ceb), Nepeta nuda, Salvia officinalis.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 février 2023)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 février 2023) :
 Heterogaster cathariae bicolor Kolenati, 1845
 Heterogaster cathariae cinnamomeus Horvath, 1882</t>
         </is>
@@ -637,10 +657,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heterogaster cathariae (Geoffroy, 1785)[5].
-L'espèce a été initialement classée dans le genre Cimex sous le protonyme Cimex cathariae Geoffroy, 1785[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heterogaster cathariae (Geoffroy, 1785).
+L'espèce a été initialement classée dans le genre Cimex sous le protonyme Cimex cathariae Geoffroy, 1785.
 </t>
         </is>
       </c>
